--- a/317 Newell St/Results/Excels/monthly_expenses.xlsx
+++ b/317 Newell St/Results/Excels/monthly_expenses.xlsx
@@ -555,10 +555,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S2">
-        <v>2523.668894089985</v>
+        <v>2522.668894089985</v>
       </c>
       <c r="T2">
-        <v>-2523.668894089985</v>
+        <v>-2522.668894089985</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,10 +617,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S3">
-        <v>1241.335560756652</v>
+        <v>1239.335560756652</v>
       </c>
       <c r="T3">
-        <v>-1241.335560756652</v>
+        <v>-1239.335560756652</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,10 +679,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S4">
-        <v>1306.502227423319</v>
+        <v>1303.502227423319</v>
       </c>
       <c r="T4">
-        <v>-23.16889408998554</v>
+        <v>-20.16889408998554</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,10 +741,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S5">
-        <v>1307.502227423319</v>
+        <v>1303.502227423319</v>
       </c>
       <c r="T5">
-        <v>-24.16889408998554</v>
+        <v>-20.16889408998554</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -803,10 +803,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S6">
-        <v>1308.502227423319</v>
+        <v>1303.502227423319</v>
       </c>
       <c r="T6">
-        <v>-25.16889408998554</v>
+        <v>-20.16889408998554</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -865,10 +865,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S7">
-        <v>1309.502227423319</v>
+        <v>1303.502227423319</v>
       </c>
       <c r="T7">
-        <v>-26.16889408998554</v>
+        <v>-20.16889408998554</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -927,10 +927,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S8">
-        <v>1310.502227423319</v>
+        <v>1303.502227423319</v>
       </c>
       <c r="T8">
-        <v>-27.16889408998554</v>
+        <v>-20.16889408998554</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -989,10 +989,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S9">
-        <v>1311.502227423319</v>
+        <v>1303.502227423319</v>
       </c>
       <c r="T9">
-        <v>-28.16889408998554</v>
+        <v>-20.16889408998554</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1051,10 +1051,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S10">
-        <v>1312.502227423319</v>
+        <v>1303.502227423319</v>
       </c>
       <c r="T10">
-        <v>-29.16889408998554</v>
+        <v>-20.16889408998554</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1113,10 +1113,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S11">
-        <v>1313.502227423319</v>
+        <v>1303.502227423319</v>
       </c>
       <c r="T11">
-        <v>-30.16889408998554</v>
+        <v>-20.16889408998554</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1175,10 +1175,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S12">
-        <v>1314.502227423319</v>
+        <v>1303.502227423319</v>
       </c>
       <c r="T12">
-        <v>-31.16889408998554</v>
+        <v>-20.16889408998554</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1237,10 +1237,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S13">
-        <v>1315.502227423319</v>
+        <v>1303.502227423319</v>
       </c>
       <c r="T13">
-        <v>-32.16889408998554</v>
+        <v>-20.16889408998554</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1299,10 +1299,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S14">
-        <v>1462.939727423319</v>
+        <v>1449.939727423319</v>
       </c>
       <c r="T14">
-        <v>-147.5230607566523</v>
+        <v>-134.5230607566523</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1361,10 +1361,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S15">
-        <v>1463.939727423319</v>
+        <v>1449.939727423319</v>
       </c>
       <c r="T15">
-        <v>-148.5230607566523</v>
+        <v>-134.5230607566523</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1423,10 +1423,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S16">
-        <v>1464.939727423319</v>
+        <v>1449.939727423319</v>
       </c>
       <c r="T16">
-        <v>-149.5230607566523</v>
+        <v>-134.5230607566523</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1485,10 +1485,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S17">
-        <v>1465.939727423319</v>
+        <v>1449.939727423319</v>
       </c>
       <c r="T17">
-        <v>-150.5230607566523</v>
+        <v>-134.5230607566523</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1547,10 +1547,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S18">
-        <v>1466.939727423319</v>
+        <v>1449.939727423319</v>
       </c>
       <c r="T18">
-        <v>-151.5230607566523</v>
+        <v>-134.5230607566523</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1609,10 +1609,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S19">
-        <v>1467.939727423319</v>
+        <v>1449.939727423319</v>
       </c>
       <c r="T19">
-        <v>-152.5230607566523</v>
+        <v>-134.5230607566523</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1671,10 +1671,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S20">
-        <v>1468.939727423319</v>
+        <v>1449.939727423319</v>
       </c>
       <c r="T20">
-        <v>-153.5230607566523</v>
+        <v>-134.5230607566523</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1733,10 +1733,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S21">
-        <v>1469.939727423319</v>
+        <v>1449.939727423319</v>
       </c>
       <c r="T21">
-        <v>-154.5230607566523</v>
+        <v>-134.5230607566523</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1795,10 +1795,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S22">
-        <v>1470.939727423319</v>
+        <v>1449.939727423319</v>
       </c>
       <c r="T22">
-        <v>-155.5230607566523</v>
+        <v>-134.5230607566523</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1857,10 +1857,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S23">
-        <v>1471.939727423319</v>
+        <v>1449.939727423319</v>
       </c>
       <c r="T23">
-        <v>-156.5230607566523</v>
+        <v>-134.5230607566523</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1919,10 +1919,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S24">
-        <v>1472.939727423319</v>
+        <v>1449.939727423319</v>
       </c>
       <c r="T24">
-        <v>-157.5230607566523</v>
+        <v>-134.5230607566523</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1981,10 +1981,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S25">
-        <v>1473.939727423319</v>
+        <v>1449.939727423319</v>
       </c>
       <c r="T25">
-        <v>-158.5230607566523</v>
+        <v>-134.5230607566523</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2043,10 +2043,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S26">
-        <v>1493.521498256652</v>
+        <v>1468.521498256652</v>
       </c>
       <c r="T26">
-        <v>-145.2194149233189</v>
+        <v>-120.2194149233189</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2105,10 +2105,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S27">
-        <v>1494.521498256652</v>
+        <v>1468.521498256652</v>
       </c>
       <c r="T27">
-        <v>-146.2194149233189</v>
+        <v>-120.2194149233189</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2167,10 +2167,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S28">
-        <v>1495.521498256652</v>
+        <v>1468.521498256652</v>
       </c>
       <c r="T28">
-        <v>-147.2194149233189</v>
+        <v>-120.2194149233189</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2229,10 +2229,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S29">
-        <v>1496.521498256652</v>
+        <v>1468.521498256652</v>
       </c>
       <c r="T29">
-        <v>-148.2194149233189</v>
+        <v>-120.2194149233189</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2291,10 +2291,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S30">
-        <v>1497.521498256652</v>
+        <v>1468.521498256652</v>
       </c>
       <c r="T30">
-        <v>-149.2194149233189</v>
+        <v>-120.2194149233189</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2353,10 +2353,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S31">
-        <v>1498.521498256652</v>
+        <v>1468.521498256652</v>
       </c>
       <c r="T31">
-        <v>-150.2194149233189</v>
+        <v>-120.2194149233189</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2415,10 +2415,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S32">
-        <v>1499.521498256652</v>
+        <v>1468.521498256652</v>
       </c>
       <c r="T32">
-        <v>-151.2194149233189</v>
+        <v>-120.2194149233189</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2477,10 +2477,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S33">
-        <v>1500.521498256652</v>
+        <v>1468.521498256652</v>
       </c>
       <c r="T33">
-        <v>-152.2194149233189</v>
+        <v>-120.2194149233189</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2539,10 +2539,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S34">
-        <v>1501.521498256652</v>
+        <v>1468.521498256652</v>
       </c>
       <c r="T34">
-        <v>-153.2194149233189</v>
+        <v>-120.2194149233189</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2601,10 +2601,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S35">
-        <v>1502.521498256652</v>
+        <v>1468.521498256652</v>
       </c>
       <c r="T35">
-        <v>-154.2194149233189</v>
+        <v>-120.2194149233189</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2663,10 +2663,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S36">
-        <v>1503.521498256652</v>
+        <v>1468.521498256652</v>
       </c>
       <c r="T36">
-        <v>-155.2194149233189</v>
+        <v>-120.2194149233189</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2725,10 +2725,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S37">
-        <v>1504.521498256652</v>
+        <v>1468.521498256652</v>
       </c>
       <c r="T37">
-        <v>-156.2194149233189</v>
+        <v>-120.2194149233189</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -2787,10 +2787,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S38">
-        <v>1524.593813360819</v>
+        <v>1487.593813360819</v>
       </c>
       <c r="T38">
-        <v>-142.5841779441523</v>
+        <v>-105.5841779441523</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -2849,10 +2849,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S39">
-        <v>1525.593813360819</v>
+        <v>1487.593813360819</v>
       </c>
       <c r="T39">
-        <v>-143.5841779441523</v>
+        <v>-105.5841779441523</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -2911,10 +2911,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S40">
-        <v>1526.593813360819</v>
+        <v>1487.593813360819</v>
       </c>
       <c r="T40">
-        <v>-144.5841779441523</v>
+        <v>-105.5841779441523</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -2973,10 +2973,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S41">
-        <v>1527.593813360819</v>
+        <v>1487.593813360819</v>
       </c>
       <c r="T41">
-        <v>-145.5841779441523</v>
+        <v>-105.5841779441523</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -3035,10 +3035,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S42">
-        <v>1528.593813360819</v>
+        <v>1487.593813360819</v>
       </c>
       <c r="T42">
-        <v>-146.5841779441523</v>
+        <v>-105.5841779441523</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3097,10 +3097,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S43">
-        <v>1529.593813360819</v>
+        <v>1487.593813360819</v>
       </c>
       <c r="T43">
-        <v>-147.5841779441523</v>
+        <v>-105.5841779441523</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -3159,10 +3159,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S44">
-        <v>1530.593813360819</v>
+        <v>1487.593813360819</v>
       </c>
       <c r="T44">
-        <v>-148.5841779441523</v>
+        <v>-105.5841779441523</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -3221,10 +3221,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S45">
-        <v>1531.593813360819</v>
+        <v>1487.593813360819</v>
       </c>
       <c r="T45">
-        <v>-149.5841779441523</v>
+        <v>-105.5841779441523</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3283,10 +3283,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S46">
-        <v>1532.593813360819</v>
+        <v>1487.593813360819</v>
       </c>
       <c r="T46">
-        <v>-150.5841779441523</v>
+        <v>-105.5841779441523</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -3345,10 +3345,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S47">
-        <v>1533.593813360819</v>
+        <v>1487.593813360819</v>
       </c>
       <c r="T47">
-        <v>-151.5841779441523</v>
+        <v>-105.5841779441523</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -3407,10 +3407,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S48">
-        <v>1534.593813360819</v>
+        <v>1487.593813360819</v>
       </c>
       <c r="T48">
-        <v>-152.5841779441523</v>
+        <v>-105.5841779441523</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -3469,10 +3469,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S49">
-        <v>1535.593813360819</v>
+        <v>1487.593813360819</v>
       </c>
       <c r="T49">
-        <v>-153.5841779441523</v>
+        <v>-105.5841779441523</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -3531,10 +3531,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S50">
-        <v>1556.169976342589</v>
+        <v>1507.169976342589</v>
       </c>
       <c r="T50">
-        <v>-139.6101000405067</v>
+        <v>-90.61010004050672</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -3593,10 +3593,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S51">
-        <v>1557.169976342589</v>
+        <v>1507.169976342589</v>
       </c>
       <c r="T51">
-        <v>-140.6101000405067</v>
+        <v>-90.61010004050672</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -3655,10 +3655,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S52">
-        <v>1558.169976342589</v>
+        <v>1507.169976342589</v>
       </c>
       <c r="T52">
-        <v>-141.6101000405067</v>
+        <v>-90.61010004050672</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -3717,10 +3717,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S53">
-        <v>1559.169976342589</v>
+        <v>1507.169976342589</v>
       </c>
       <c r="T53">
-        <v>-142.6101000405067</v>
+        <v>-90.61010004050672</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -3779,10 +3779,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S54">
-        <v>1560.169976342589</v>
+        <v>1507.169976342589</v>
       </c>
       <c r="T54">
-        <v>-143.6101000405067</v>
+        <v>-90.61010004050672</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -3841,10 +3841,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S55">
-        <v>1561.169976342589</v>
+        <v>1507.169976342589</v>
       </c>
       <c r="T55">
-        <v>-144.6101000405067</v>
+        <v>-90.61010004050672</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -3903,10 +3903,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S56">
-        <v>1562.169976342589</v>
+        <v>1507.169976342589</v>
       </c>
       <c r="T56">
-        <v>-145.6101000405067</v>
+        <v>-90.61010004050672</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -3965,10 +3965,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S57">
-        <v>1563.169976342589</v>
+        <v>1507.169976342589</v>
       </c>
       <c r="T57">
-        <v>-146.6101000405067</v>
+        <v>-90.61010004050672</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -4027,10 +4027,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S58">
-        <v>1564.169976342589</v>
+        <v>1507.169976342589</v>
       </c>
       <c r="T58">
-        <v>-147.6101000405067</v>
+        <v>-90.61010004050672</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -4089,10 +4089,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S59">
-        <v>1565.16997634259</v>
+        <v>1507.169976342589</v>
       </c>
       <c r="T59">
-        <v>-148.6101000405069</v>
+        <v>-90.61010004050672</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -4151,10 +4151,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S60">
-        <v>1566.16997634259</v>
+        <v>1507.169976342589</v>
       </c>
       <c r="T60">
-        <v>-149.6101000405069</v>
+        <v>-90.61010004050672</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -4213,10 +4213,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S61">
-        <v>1567.16997634259</v>
+        <v>1507.169976342589</v>
       </c>
       <c r="T61">
-        <v>-150.6101000405069</v>
+        <v>-90.61010004050672</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -4275,10 +4275,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S62">
-        <v>1588.263664998904</v>
+        <v>1527.263664998904</v>
       </c>
       <c r="T62">
-        <v>-136.2897917892697</v>
+        <v>-75.28979178926966</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -4337,10 +4337,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S63">
-        <v>1589.263664998904</v>
+        <v>1527.263664998904</v>
       </c>
       <c r="T63">
-        <v>-137.2897917892697</v>
+        <v>-75.28979178926966</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -4399,10 +4399,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S64">
-        <v>1590.263664998904</v>
+        <v>1527.263664998904</v>
       </c>
       <c r="T64">
-        <v>-138.2897917892697</v>
+        <v>-75.28979178926966</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -4461,10 +4461,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S65">
-        <v>1591.263664998904</v>
+        <v>1527.263664998904</v>
       </c>
       <c r="T65">
-        <v>-139.2897917892697</v>
+        <v>-75.28979178926966</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -4523,10 +4523,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S66">
-        <v>1592.263664998904</v>
+        <v>1527.263664998904</v>
       </c>
       <c r="T66">
-        <v>-140.2897917892697</v>
+        <v>-75.28979178926966</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -4585,10 +4585,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S67">
-        <v>1593.263664998904</v>
+        <v>1527.263664998904</v>
       </c>
       <c r="T67">
-        <v>-141.2897917892697</v>
+        <v>-75.28979178926966</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -4647,10 +4647,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S68">
-        <v>1594.263664998904</v>
+        <v>1527.263664998904</v>
       </c>
       <c r="T68">
-        <v>-142.2897917892697</v>
+        <v>-75.28979178926966</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -4709,10 +4709,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S69">
-        <v>1595.263664998904</v>
+        <v>1527.263664998904</v>
       </c>
       <c r="T69">
-        <v>-143.2897917892697</v>
+        <v>-75.28979178926966</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -4771,10 +4771,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S70">
-        <v>1596.263664998904</v>
+        <v>1527.263664998904</v>
       </c>
       <c r="T70">
-        <v>-144.2897917892697</v>
+        <v>-75.28979178926966</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -4833,10 +4833,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S71">
-        <v>1597.263664998904</v>
+        <v>1527.263664998904</v>
       </c>
       <c r="T71">
-        <v>-145.2897917892697</v>
+        <v>-75.28979178926966</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -4895,10 +4895,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S72">
-        <v>1598.263664998904</v>
+        <v>1527.263664998904</v>
       </c>
       <c r="T72">
-        <v>-146.2897917892697</v>
+        <v>-75.28979178926966</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -4957,10 +4957,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S73">
-        <v>1599.263664998904</v>
+        <v>1527.263664998904</v>
       </c>
       <c r="T73">
-        <v>-147.2897917892697</v>
+        <v>-75.28979178926966</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -5019,10 +5019,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S74">
-        <v>1620.888942335627</v>
+        <v>1547.888942335627</v>
       </c>
       <c r="T74">
-        <v>-132.6157222957518</v>
+        <v>-59.61572229575177</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -5081,10 +5081,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S75">
-        <v>1621.888942335627</v>
+        <v>1547.888942335627</v>
       </c>
       <c r="T75">
-        <v>-133.6157222957518</v>
+        <v>-59.61572229575177</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -5143,10 +5143,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S76">
-        <v>1622.888942335627</v>
+        <v>1547.888942335627</v>
       </c>
       <c r="T76">
-        <v>-134.6157222957518</v>
+        <v>-59.61572229575177</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -5205,10 +5205,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S77">
-        <v>1623.888942335627</v>
+        <v>1547.888942335627</v>
       </c>
       <c r="T77">
-        <v>-135.6157222957518</v>
+        <v>-59.61572229575177</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -5267,10 +5267,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S78">
-        <v>1624.888942335627</v>
+        <v>1547.888942335627</v>
       </c>
       <c r="T78">
-        <v>-136.6157222957518</v>
+        <v>-59.61572229575177</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -5329,10 +5329,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S79">
-        <v>1625.888942335627</v>
+        <v>1547.888942335627</v>
       </c>
       <c r="T79">
-        <v>-137.6157222957518</v>
+        <v>-59.61572229575177</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -5391,10 +5391,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S80">
-        <v>1626.888942335627</v>
+        <v>1547.888942335627</v>
       </c>
       <c r="T80">
-        <v>-138.6157222957518</v>
+        <v>-59.61572229575177</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -5453,10 +5453,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S81">
-        <v>1627.888942335627</v>
+        <v>1547.888942335627</v>
       </c>
       <c r="T81">
-        <v>-139.6157222957518</v>
+        <v>-59.61572229575177</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -5515,10 +5515,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S82">
-        <v>1628.888942335627</v>
+        <v>1547.888942335627</v>
       </c>
       <c r="T82">
-        <v>-140.6157222957518</v>
+        <v>-59.61572229575177</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -5577,10 +5577,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S83">
-        <v>1629.888942335627</v>
+        <v>1547.888942335627</v>
       </c>
       <c r="T83">
-        <v>-141.6157222957518</v>
+        <v>-59.61572229575177</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -5639,10 +5639,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S84">
-        <v>1630.888942335627</v>
+        <v>1547.888942335627</v>
       </c>
       <c r="T84">
-        <v>-142.6157222957518</v>
+        <v>-59.61572229575177</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -5701,10 +5701,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S85">
-        <v>1631.888942335627</v>
+        <v>1547.888942335627</v>
       </c>
       <c r="T85">
-        <v>-143.6157222957518</v>
+        <v>-59.61572229575177</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -5763,10 +5763,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S86">
-        <v>1654.060267928328</v>
+        <v>1569.060267928328</v>
       </c>
       <c r="T86">
-        <v>-128.5802173874561</v>
+        <v>-43.58021738745606</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -5825,10 +5825,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S87">
-        <v>1655.060267928328</v>
+        <v>1569.060267928328</v>
       </c>
       <c r="T87">
-        <v>-129.5802173874561</v>
+        <v>-43.58021738745606</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -5887,10 +5887,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S88">
-        <v>1656.060267928328</v>
+        <v>1569.060267928328</v>
       </c>
       <c r="T88">
-        <v>-130.5802173874561</v>
+        <v>-43.58021738745606</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -5949,10 +5949,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S89">
-        <v>1657.060267928328</v>
+        <v>1569.060267928328</v>
       </c>
       <c r="T89">
-        <v>-131.5802173874561</v>
+        <v>-43.58021738745606</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -6011,10 +6011,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S90">
-        <v>1658.060267928328</v>
+        <v>1569.060267928328</v>
       </c>
       <c r="T90">
-        <v>-132.5802173874561</v>
+        <v>-43.58021738745606</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -6073,10 +6073,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S91">
-        <v>1659.060267928328</v>
+        <v>1569.060267928328</v>
       </c>
       <c r="T91">
-        <v>-133.5802173874561</v>
+        <v>-43.58021738745606</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -6135,10 +6135,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S92">
-        <v>1660.060267928328</v>
+        <v>1569.060267928328</v>
       </c>
       <c r="T92">
-        <v>-134.5802173874561</v>
+        <v>-43.58021738745606</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -6197,10 +6197,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S93">
-        <v>1661.060267928328</v>
+        <v>1569.060267928328</v>
       </c>
       <c r="T93">
-        <v>-135.5802173874561</v>
+        <v>-43.58021738745606</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -6259,10 +6259,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S94">
-        <v>1662.060267928328</v>
+        <v>1569.060267928328</v>
       </c>
       <c r="T94">
-        <v>-136.5802173874561</v>
+        <v>-43.58021738745606</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -6321,10 +6321,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S95">
-        <v>1663.060267928328</v>
+        <v>1569.060267928328</v>
       </c>
       <c r="T95">
-        <v>-137.5802173874561</v>
+        <v>-43.58021738745606</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -6383,10 +6383,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S96">
-        <v>1664.060267928328</v>
+        <v>1569.060267928328</v>
       </c>
       <c r="T96">
-        <v>-138.5802173874561</v>
+        <v>-43.58021738745606</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -6445,10 +6445,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S97">
-        <v>1665.060267928328</v>
+        <v>1569.060267928328</v>
       </c>
       <c r="T97">
-        <v>-139.5802173874561</v>
+        <v>-43.58021738745606</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -6507,10 +6507,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S98">
-        <v>1687.792509636309</v>
+        <v>1590.792509636309</v>
       </c>
       <c r="T98">
-        <v>-124.1754578319155</v>
+        <v>-27.17545783191554</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -6569,10 +6569,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S99">
-        <v>1688.792509636309</v>
+        <v>1590.792509636309</v>
       </c>
       <c r="T99">
-        <v>-125.1754578319155</v>
+        <v>-27.17545783191554</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -6631,10 +6631,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S100">
-        <v>1689.792509636309</v>
+        <v>1590.792509636309</v>
       </c>
       <c r="T100">
-        <v>-126.1754578319155</v>
+        <v>-27.17545783191554</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -6693,10 +6693,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S101">
-        <v>1690.792509636309</v>
+        <v>1590.792509636309</v>
       </c>
       <c r="T101">
-        <v>-127.1754578319155</v>
+        <v>-27.17545783191554</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -6755,10 +6755,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S102">
-        <v>1691.792509636309</v>
+        <v>1590.792509636309</v>
       </c>
       <c r="T102">
-        <v>-128.1754578319155</v>
+        <v>-27.17545783191554</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -6817,10 +6817,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S103">
-        <v>1692.792509636309</v>
+        <v>1590.792509636309</v>
       </c>
       <c r="T103">
-        <v>-129.1754578319155</v>
+        <v>-27.17545783191554</v>
       </c>
     </row>
     <row r="104" spans="1:20">
@@ -6879,10 +6879,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S104">
-        <v>1693.792509636309</v>
+        <v>1590.792509636309</v>
       </c>
       <c r="T104">
-        <v>-130.1754578319155</v>
+        <v>-27.17545783191554</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -6941,10 +6941,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S105">
-        <v>1694.792509636309</v>
+        <v>1590.792509636309</v>
       </c>
       <c r="T105">
-        <v>-131.1754578319155</v>
+        <v>-27.17545783191554</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -7003,10 +7003,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S106">
-        <v>1695.792509636309</v>
+        <v>1590.792509636309</v>
       </c>
       <c r="T106">
-        <v>-132.1754578319155</v>
+        <v>-27.17545783191554</v>
       </c>
     </row>
     <row r="107" spans="1:20">
@@ -7065,10 +7065,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S107">
-        <v>1696.792509636309</v>
+        <v>1590.792509636309</v>
       </c>
       <c r="T107">
-        <v>-133.1754578319155</v>
+        <v>-27.17545783191554</v>
       </c>
     </row>
     <row r="108" spans="1:20">
@@ -7127,10 +7127,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S108">
-        <v>1697.792509636309</v>
+        <v>1590.792509636309</v>
       </c>
       <c r="T108">
-        <v>-134.1754578319155</v>
+        <v>-27.17545783191554</v>
       </c>
     </row>
     <row r="109" spans="1:20">
@@ -7189,10 +7189,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S109">
-        <v>1698.792509636309</v>
+        <v>1590.792509636309</v>
       </c>
       <c r="T109">
-        <v>-135.1754578319155</v>
+        <v>-27.17545783191554</v>
       </c>
     </row>
     <row r="110" spans="1:20">
@@ -7251,10 +7251,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S110">
-        <v>1722.10095568147</v>
+        <v>1613.10095568147</v>
       </c>
       <c r="T110">
-        <v>-119.3934775819669</v>
+        <v>-10.39347758196686</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -7313,10 +7313,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S111">
-        <v>1723.10095568147</v>
+        <v>1613.10095568147</v>
       </c>
       <c r="T111">
-        <v>-120.3934775819669</v>
+        <v>-10.39347758196686</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -7375,10 +7375,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S112">
-        <v>1724.10095568147</v>
+        <v>1613.10095568147</v>
       </c>
       <c r="T112">
-        <v>-121.3934775819669</v>
+        <v>-10.39347758196686</v>
       </c>
     </row>
     <row r="113" spans="1:20">
@@ -7437,10 +7437,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S113">
-        <v>1725.10095568147</v>
+        <v>1613.10095568147</v>
       </c>
       <c r="T113">
-        <v>-122.3934775819669</v>
+        <v>-10.39347758196686</v>
       </c>
     </row>
     <row r="114" spans="1:20">
@@ -7499,10 +7499,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S114">
-        <v>1726.10095568147</v>
+        <v>1613.10095568147</v>
       </c>
       <c r="T114">
-        <v>-123.3934775819669</v>
+        <v>-10.39347758196686</v>
       </c>
     </row>
     <row r="115" spans="1:20">
@@ -7561,10 +7561,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S115">
-        <v>1727.10095568147</v>
+        <v>1613.10095568147</v>
       </c>
       <c r="T115">
-        <v>-124.3934775819669</v>
+        <v>-10.39347758196686</v>
       </c>
     </row>
     <row r="116" spans="1:20">
@@ -7623,10 +7623,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S116">
-        <v>1728.10095568147</v>
+        <v>1613.10095568147</v>
       </c>
       <c r="T116">
-        <v>-125.3934775819669</v>
+        <v>-10.39347758196686</v>
       </c>
     </row>
     <row r="117" spans="1:20">
@@ -7685,10 +7685,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S117">
-        <v>1729.10095568147</v>
+        <v>1613.10095568147</v>
       </c>
       <c r="T117">
-        <v>-126.3934775819669</v>
+        <v>-10.39347758196686</v>
       </c>
     </row>
     <row r="118" spans="1:20">
@@ -7747,10 +7747,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S118">
-        <v>1730.10095568147</v>
+        <v>1613.10095568147</v>
       </c>
       <c r="T118">
-        <v>-127.3934775819669</v>
+        <v>-10.39347758196686</v>
       </c>
     </row>
     <row r="119" spans="1:20">
@@ -7809,10 +7809,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S119">
-        <v>1731.10095568147</v>
+        <v>1613.10095568147</v>
       </c>
       <c r="T119">
-        <v>-128.3934775819669</v>
+        <v>-10.39347758196686</v>
       </c>
     </row>
     <row r="120" spans="1:20">
@@ -7871,10 +7871,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S120">
-        <v>1732.10095568147</v>
+        <v>1613.10095568147</v>
       </c>
       <c r="T120">
-        <v>-129.3934775819669</v>
+        <v>-10.39347758196686</v>
       </c>
     </row>
     <row r="121" spans="1:20">
@@ -7933,10 +7933,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S121">
-        <v>1733.10095568147</v>
+        <v>1613.10095568147</v>
       </c>
       <c r="T121">
-        <v>-130.3934775819669</v>
+        <v>-10.39347758196686</v>
       </c>
     </row>
     <row r="122" spans="1:20">
@@ -7995,10 +7995,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S122">
-        <v>1757.001327104021</v>
+        <v>1636.001327104021</v>
       </c>
       <c r="T122">
-        <v>-114.2261620520298</v>
+        <v>6.773837947969923</v>
       </c>
     </row>
     <row r="123" spans="1:20">
@@ -8057,10 +8057,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S123">
-        <v>1758.001327104021</v>
+        <v>1636.001327104021</v>
       </c>
       <c r="T123">
-        <v>-115.2261620520298</v>
+        <v>6.773837947969923</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -8119,10 +8119,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S124">
-        <v>1759.001327104021</v>
+        <v>1636.001327104021</v>
       </c>
       <c r="T124">
-        <v>-116.2261620520298</v>
+        <v>6.773837947969923</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -8181,10 +8181,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S125">
-        <v>1760.001327104021</v>
+        <v>1636.001327104021</v>
       </c>
       <c r="T125">
-        <v>-117.2261620520298</v>
+        <v>6.773837947969923</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -8243,10 +8243,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S126">
-        <v>1761.001327104021</v>
+        <v>1636.001327104021</v>
       </c>
       <c r="T126">
-        <v>-118.2261620520298</v>
+        <v>6.773837947969923</v>
       </c>
     </row>
     <row r="127" spans="1:20">
@@ -8305,10 +8305,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S127">
-        <v>1762.001327104021</v>
+        <v>1636.001327104021</v>
       </c>
       <c r="T127">
-        <v>-119.2261620520298</v>
+        <v>6.773837947969923</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -8367,10 +8367,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S128">
-        <v>1763.001327104021</v>
+        <v>1636.001327104021</v>
       </c>
       <c r="T128">
-        <v>-120.2261620520298</v>
+        <v>6.773837947969923</v>
       </c>
     </row>
     <row r="129" spans="1:20">
@@ -8429,10 +8429,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S129">
-        <v>1764.001327104021</v>
+        <v>1636.001327104021</v>
       </c>
       <c r="T129">
-        <v>-121.2261620520298</v>
+        <v>6.773837947969923</v>
       </c>
     </row>
     <row r="130" spans="1:20">
@@ -8491,10 +8491,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S130">
-        <v>1765.001327104021</v>
+        <v>1636.001327104021</v>
       </c>
       <c r="T130">
-        <v>-122.2261620520298</v>
+        <v>6.773837947969923</v>
       </c>
     </row>
     <row r="131" spans="1:20">
@@ -8553,10 +8553,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S131">
-        <v>1766.001327104021</v>
+        <v>1636.001327104021</v>
       </c>
       <c r="T131">
-        <v>-123.2261620520298</v>
+        <v>6.773837947969923</v>
       </c>
     </row>
     <row r="132" spans="1:20">
@@ -8615,10 +8615,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S132">
-        <v>1767.001327104021</v>
+        <v>1636.001327104021</v>
       </c>
       <c r="T132">
-        <v>-124.2261620520298</v>
+        <v>6.773837947969923</v>
       </c>
     </row>
     <row r="133" spans="1:20">
@@ -8677,10 +8677,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S133">
-        <v>1768.001327104021</v>
+        <v>1636.001327104021</v>
       </c>
       <c r="T133">
-        <v>-125.2261620520298</v>
+        <v>6.773837947969923</v>
       </c>
     </row>
     <row r="134" spans="1:20">
@@ -8739,10 +8739,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S134">
-        <v>1792.509790607446</v>
+        <v>1659.509790607446</v>
       </c>
       <c r="T134">
-        <v>-108.6652464291549</v>
+        <v>24.3347535708449</v>
       </c>
     </row>
     <row r="135" spans="1:20">
@@ -8801,10 +8801,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S135">
-        <v>1793.509790607446</v>
+        <v>1659.509790607446</v>
       </c>
       <c r="T135">
-        <v>-109.6652464291549</v>
+        <v>24.3347535708449</v>
       </c>
     </row>
     <row r="136" spans="1:20">
@@ -8863,10 +8863,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S136">
-        <v>1794.509790607446</v>
+        <v>1659.509790607446</v>
       </c>
       <c r="T136">
-        <v>-110.6652464291549</v>
+        <v>24.3347535708449</v>
       </c>
     </row>
     <row r="137" spans="1:20">
@@ -8925,10 +8925,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S137">
-        <v>1795.509790607446</v>
+        <v>1659.509790607446</v>
       </c>
       <c r="T137">
-        <v>-111.6652464291549</v>
+        <v>24.3347535708449</v>
       </c>
     </row>
     <row r="138" spans="1:20">
@@ -8987,10 +8987,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S138">
-        <v>1796.509790607446</v>
+        <v>1659.509790607446</v>
       </c>
       <c r="T138">
-        <v>-112.6652464291549</v>
+        <v>24.3347535708449</v>
       </c>
     </row>
     <row r="139" spans="1:20">
@@ -9049,10 +9049,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S139">
-        <v>1797.509790607446</v>
+        <v>1659.509790607446</v>
       </c>
       <c r="T139">
-        <v>-113.6652464291549</v>
+        <v>24.3347535708449</v>
       </c>
     </row>
     <row r="140" spans="1:20">
@@ -9111,10 +9111,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S140">
-        <v>1798.509790607446</v>
+        <v>1659.509790607446</v>
       </c>
       <c r="T140">
-        <v>-114.6652464291549</v>
+        <v>24.3347535708449</v>
       </c>
     </row>
     <row r="141" spans="1:20">
@@ -9173,10 +9173,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S141">
-        <v>1799.509790607446</v>
+        <v>1659.509790607446</v>
       </c>
       <c r="T141">
-        <v>-115.6652464291549</v>
+        <v>24.3347535708449</v>
       </c>
     </row>
     <row r="142" spans="1:20">
@@ -9235,10 +9235,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S142">
-        <v>1800.509790607446</v>
+        <v>1659.509790607446</v>
       </c>
       <c r="T142">
-        <v>-116.6652464291549</v>
+        <v>24.3347535708449</v>
       </c>
     </row>
     <row r="143" spans="1:20">
@@ -9297,10 +9297,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S143">
-        <v>1801.509790607446</v>
+        <v>1659.509790607446</v>
       </c>
       <c r="T143">
-        <v>-117.6652464291549</v>
+        <v>24.3347535708449</v>
       </c>
     </row>
     <row r="144" spans="1:20">
@@ -9359,10 +9359,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S144">
-        <v>1802.509790607446</v>
+        <v>1659.509790607446</v>
       </c>
       <c r="T144">
-        <v>-118.6652464291549</v>
+        <v>24.3347535708449</v>
       </c>
     </row>
     <row r="145" spans="1:20">
@@ -9421,10 +9421,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S145">
-        <v>1803.509790607446</v>
+        <v>1659.509790607446</v>
       </c>
       <c r="T145">
-        <v>-119.6652464291549</v>
+        <v>24.3347535708449</v>
       </c>
     </row>
     <row r="146" spans="1:20">
@@ -9483,10 +9483,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S146">
-        <v>1828.642971805579</v>
+        <v>1683.642971805579</v>
       </c>
       <c r="T146">
-        <v>-102.7023140228314</v>
+        <v>42.29768597716861</v>
       </c>
     </row>
     <row r="147" spans="1:20">
@@ -9545,10 +9545,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S147">
-        <v>1829.642971805579</v>
+        <v>1683.642971805579</v>
       </c>
       <c r="T147">
-        <v>-103.7023140228314</v>
+        <v>42.29768597716861</v>
       </c>
     </row>
     <row r="148" spans="1:20">
@@ -9607,10 +9607,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S148">
-        <v>1830.642971805579</v>
+        <v>1683.642971805579</v>
       </c>
       <c r="T148">
-        <v>-104.7023140228314</v>
+        <v>42.29768597716861</v>
       </c>
     </row>
     <row r="149" spans="1:20">
@@ -9669,10 +9669,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S149">
-        <v>1831.642971805579</v>
+        <v>1683.642971805579</v>
       </c>
       <c r="T149">
-        <v>-105.7023140228314</v>
+        <v>42.29768597716861</v>
       </c>
     </row>
     <row r="150" spans="1:20">
@@ -9731,10 +9731,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S150">
-        <v>1832.642971805579</v>
+        <v>1683.642971805579</v>
       </c>
       <c r="T150">
-        <v>-106.7023140228314</v>
+        <v>42.29768597716861</v>
       </c>
     </row>
     <row r="151" spans="1:20">
@@ -9793,10 +9793,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S151">
-        <v>1833.642971805579</v>
+        <v>1683.642971805579</v>
       </c>
       <c r="T151">
-        <v>-107.7023140228314</v>
+        <v>42.29768597716861</v>
       </c>
     </row>
     <row r="152" spans="1:20">
@@ -9855,10 +9855,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S152">
-        <v>1834.642971805579</v>
+        <v>1683.642971805579</v>
       </c>
       <c r="T152">
-        <v>-108.7023140228314</v>
+        <v>42.29768597716861</v>
       </c>
     </row>
     <row r="153" spans="1:20">
@@ -9917,10 +9917,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S153">
-        <v>1835.642971805579</v>
+        <v>1683.642971805579</v>
       </c>
       <c r="T153">
-        <v>-109.7023140228314</v>
+        <v>42.29768597716861</v>
       </c>
     </row>
     <row r="154" spans="1:20">
@@ -9979,10 +9979,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S154">
-        <v>1836.642971805579</v>
+        <v>1683.642971805579</v>
       </c>
       <c r="T154">
-        <v>-110.7023140228314</v>
+        <v>42.29768597716861</v>
       </c>
     </row>
     <row r="155" spans="1:20">
@@ -10041,10 +10041,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S155">
-        <v>1837.642971805579</v>
+        <v>1683.642971805579</v>
       </c>
       <c r="T155">
-        <v>-111.7023140228314</v>
+        <v>42.29768597716861</v>
       </c>
     </row>
     <row r="156" spans="1:20">
@@ -10103,10 +10103,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S156">
-        <v>1838.642971805579</v>
+        <v>1683.642971805579</v>
       </c>
       <c r="T156">
-        <v>-112.7023140228314</v>
+        <v>42.29768597716861</v>
       </c>
     </row>
     <row r="157" spans="1:20">
@@ -10165,10 +10165,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S157">
-        <v>1839.642971805579</v>
+        <v>1683.642971805579</v>
       </c>
       <c r="T157">
-        <v>-113.7023140228314</v>
+        <v>42.29768597716861</v>
       </c>
     </row>
     <row r="158" spans="1:20">
@@ -10227,10 +10227,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S158">
-        <v>1865.417968885074</v>
+        <v>1708.417968885074</v>
       </c>
       <c r="T158">
-        <v>-96.3287946577575</v>
+        <v>60.6712053422425</v>
       </c>
     </row>
     <row r="159" spans="1:20">
@@ -10289,10 +10289,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S159">
-        <v>1866.417968885074</v>
+        <v>1708.417968885074</v>
       </c>
       <c r="T159">
-        <v>-97.3287946577575</v>
+        <v>60.6712053422425</v>
       </c>
     </row>
     <row r="160" spans="1:20">
@@ -10351,10 +10351,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S160">
-        <v>1867.417968885074</v>
+        <v>1708.417968885074</v>
       </c>
       <c r="T160">
-        <v>-98.3287946577575</v>
+        <v>60.6712053422425</v>
       </c>
     </row>
     <row r="161" spans="1:20">
@@ -10413,10 +10413,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S161">
-        <v>1868.417968885074</v>
+        <v>1708.417968885074</v>
       </c>
       <c r="T161">
-        <v>-99.3287946577575</v>
+        <v>60.6712053422425</v>
       </c>
     </row>
     <row r="162" spans="1:20">
@@ -10475,10 +10475,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S162">
-        <v>1869.417968885074</v>
+        <v>1708.417968885074</v>
       </c>
       <c r="T162">
-        <v>-100.3287946577575</v>
+        <v>60.6712053422425</v>
       </c>
     </row>
     <row r="163" spans="1:20">
@@ -10537,10 +10537,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S163">
-        <v>1870.417968885074</v>
+        <v>1708.417968885074</v>
       </c>
       <c r="T163">
-        <v>-101.3287946577575</v>
+        <v>60.6712053422425</v>
       </c>
     </row>
     <row r="164" spans="1:20">
@@ -10599,10 +10599,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S164">
-        <v>1871.417968885074</v>
+        <v>1708.417968885074</v>
       </c>
       <c r="T164">
-        <v>-102.3287946577575</v>
+        <v>60.6712053422425</v>
       </c>
     </row>
     <row r="165" spans="1:20">
@@ -10661,10 +10661,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S165">
-        <v>1872.417968885074</v>
+        <v>1708.417968885074</v>
       </c>
       <c r="T165">
-        <v>-103.3287946577575</v>
+        <v>60.6712053422425</v>
       </c>
     </row>
     <row r="166" spans="1:20">
@@ -10723,10 +10723,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S166">
-        <v>1873.417968885074</v>
+        <v>1708.417968885074</v>
       </c>
       <c r="T166">
-        <v>-104.3287946577575</v>
+        <v>60.6712053422425</v>
       </c>
     </row>
     <row r="167" spans="1:20">
@@ -10785,10 +10785,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S167">
-        <v>1874.417968885074</v>
+        <v>1708.417968885074</v>
       </c>
       <c r="T167">
-        <v>-105.3287946577575</v>
+        <v>60.6712053422425</v>
       </c>
     </row>
     <row r="168" spans="1:20">
@@ -10847,10 +10847,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S168">
-        <v>1875.417968885074</v>
+        <v>1708.417968885074</v>
       </c>
       <c r="T168">
-        <v>-106.3287946577575</v>
+        <v>60.6712053422425</v>
       </c>
     </row>
     <row r="169" spans="1:20">
@@ -10909,10 +10909,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S169">
-        <v>1876.417968885074</v>
+        <v>1708.417968885074</v>
       </c>
       <c r="T169">
-        <v>-107.3287946577575</v>
+        <v>60.6712053422425</v>
       </c>
     </row>
     <row r="170" spans="1:20">
@@ -10971,10 +10971,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S170">
-        <v>1902.85236669702</v>
+        <v>1733.85236669702</v>
       </c>
       <c r="T170">
-        <v>-89.53596311402089</v>
+        <v>79.46403688597911</v>
       </c>
     </row>
     <row r="171" spans="1:20">
@@ -11033,10 +11033,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S171">
-        <v>1903.85236669702</v>
+        <v>1733.85236669702</v>
       </c>
       <c r="T171">
-        <v>-90.53596311402089</v>
+        <v>79.46403688597911</v>
       </c>
     </row>
     <row r="172" spans="1:20">
@@ -11095,10 +11095,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S172">
-        <v>1904.85236669702</v>
+        <v>1733.85236669702</v>
       </c>
       <c r="T172">
-        <v>-91.53596311402089</v>
+        <v>79.46403688597911</v>
       </c>
     </row>
     <row r="173" spans="1:20">
@@ -11157,10 +11157,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S173">
-        <v>1905.85236669702</v>
+        <v>1733.85236669702</v>
       </c>
       <c r="T173">
-        <v>-92.53596311402089</v>
+        <v>79.46403688597911</v>
       </c>
     </row>
     <row r="174" spans="1:20">
@@ -11219,10 +11219,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S174">
-        <v>1906.85236669702</v>
+        <v>1733.85236669702</v>
       </c>
       <c r="T174">
-        <v>-93.53596311402089</v>
+        <v>79.46403688597911</v>
       </c>
     </row>
     <row r="175" spans="1:20">
@@ -11281,10 +11281,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S175">
-        <v>1907.85236669702</v>
+        <v>1733.85236669702</v>
       </c>
       <c r="T175">
-        <v>-94.53596311402089</v>
+        <v>79.46403688597911</v>
       </c>
     </row>
     <row r="176" spans="1:20">
@@ -11343,10 +11343,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S176">
-        <v>1908.85236669702</v>
+        <v>1733.85236669702</v>
       </c>
       <c r="T176">
-        <v>-95.53596311402089</v>
+        <v>79.46403688597911</v>
       </c>
     </row>
     <row r="177" spans="1:20">
@@ -11405,10 +11405,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S177">
-        <v>1909.85236669702</v>
+        <v>1733.85236669702</v>
       </c>
       <c r="T177">
-        <v>-96.53596311402089</v>
+        <v>79.46403688597911</v>
       </c>
     </row>
     <row r="178" spans="1:20">
@@ -11467,10 +11467,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S178">
-        <v>1910.85236669702</v>
+        <v>1733.85236669702</v>
       </c>
       <c r="T178">
-        <v>-97.53596311402089</v>
+        <v>79.46403688597911</v>
       </c>
     </row>
     <row r="179" spans="1:20">
@@ -11529,10 +11529,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S179">
-        <v>1911.85236669702</v>
+        <v>1733.85236669702</v>
       </c>
       <c r="T179">
-        <v>-98.53596311402089</v>
+        <v>79.46403688597911</v>
       </c>
     </row>
     <row r="180" spans="1:20">
@@ -11591,10 +11591,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S180">
-        <v>1912.85236669702</v>
+        <v>1733.85236669702</v>
       </c>
       <c r="T180">
-        <v>-99.53596311402089</v>
+        <v>79.46403688597911</v>
       </c>
     </row>
     <row r="181" spans="1:20">
@@ -11653,10 +11653,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S181">
-        <v>1913.85236669702</v>
+        <v>1733.85236669702</v>
       </c>
       <c r="T181">
-        <v>-100.5359631140209</v>
+        <v>79.46403688597911</v>
       </c>
     </row>
     <row r="182" spans="1:20">
@@ -11715,10 +11715,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S182">
-        <v>1940.964251291948</v>
+        <v>1759.964251291947</v>
       </c>
       <c r="T182">
-        <v>-82.31493761937372</v>
+        <v>98.68506238062673</v>
       </c>
     </row>
     <row r="183" spans="1:20">
@@ -11777,10 +11777,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S183">
-        <v>1941.964251291948</v>
+        <v>1759.964251291947</v>
       </c>
       <c r="T183">
-        <v>-83.31493761937372</v>
+        <v>98.68506238062673</v>
       </c>
     </row>
     <row r="184" spans="1:20">
@@ -11839,10 +11839,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S184">
-        <v>1942.964251291948</v>
+        <v>1759.964251291947</v>
       </c>
       <c r="T184">
-        <v>-84.31493761937372</v>
+        <v>98.68506238062673</v>
       </c>
     </row>
     <row r="185" spans="1:20">
@@ -11901,10 +11901,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S185">
-        <v>1943.964251291948</v>
+        <v>1759.964251291947</v>
       </c>
       <c r="T185">
-        <v>-85.31493761937372</v>
+        <v>98.68506238062673</v>
       </c>
     </row>
     <row r="186" spans="1:20">
@@ -11963,10 +11963,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S186">
-        <v>1944.964251291948</v>
+        <v>1759.964251291947</v>
       </c>
       <c r="T186">
-        <v>-86.31493761937372</v>
+        <v>98.68506238062673</v>
       </c>
     </row>
     <row r="187" spans="1:20">
@@ -12025,10 +12025,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S187">
-        <v>1945.964251291948</v>
+        <v>1759.964251291947</v>
       </c>
       <c r="T187">
-        <v>-87.31493761937372</v>
+        <v>98.68506238062673</v>
       </c>
     </row>
     <row r="188" spans="1:20">
@@ -12087,10 +12087,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S188">
-        <v>1946.964251291948</v>
+        <v>1759.964251291947</v>
       </c>
       <c r="T188">
-        <v>-88.31493761937372</v>
+        <v>98.68506238062673</v>
       </c>
     </row>
     <row r="189" spans="1:20">
@@ -12149,10 +12149,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S189">
-        <v>1947.964251291948</v>
+        <v>1759.964251291947</v>
       </c>
       <c r="T189">
-        <v>-89.31493761937372</v>
+        <v>98.68506238062673</v>
       </c>
     </row>
     <row r="190" spans="1:20">
@@ -12211,10 +12211,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S190">
-        <v>1948.964251291948</v>
+        <v>1759.964251291947</v>
       </c>
       <c r="T190">
-        <v>-90.31493761937372</v>
+        <v>98.68506238062673</v>
       </c>
     </row>
     <row r="191" spans="1:20">
@@ -12273,10 +12273,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S191">
-        <v>1949.964251291948</v>
+        <v>1759.964251291947</v>
       </c>
       <c r="T191">
-        <v>-91.31493761937372</v>
+        <v>98.68506238062673</v>
       </c>
     </row>
     <row r="192" spans="1:20">
@@ -12335,10 +12335,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S192">
-        <v>1950.964251291948</v>
+        <v>1759.964251291947</v>
       </c>
       <c r="T192">
-        <v>-92.31493761937372</v>
+        <v>98.68506238062673</v>
       </c>
     </row>
     <row r="193" spans="1:20">
@@ -12397,10 +12397,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S193">
-        <v>1951.964251291948</v>
+        <v>1759.964251291947</v>
       </c>
       <c r="T193">
-        <v>-93.31493761937372</v>
+        <v>98.68506238062673</v>
       </c>
     </row>
     <row r="194" spans="1:20">
@@ -12459,10 +12459,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S194">
-        <v>1979.772224912938</v>
+        <v>1786.772224912938</v>
       </c>
       <c r="T194">
-        <v>-74.65667839855018</v>
+        <v>118.3433216014498</v>
       </c>
     </row>
     <row r="195" spans="1:20">
@@ -12521,10 +12521,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S195">
-        <v>1980.772224912938</v>
+        <v>1786.772224912938</v>
       </c>
       <c r="T195">
-        <v>-75.65667839855018</v>
+        <v>118.3433216014498</v>
       </c>
     </row>
     <row r="196" spans="1:20">
@@ -12583,10 +12583,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S196">
-        <v>1981.772224912938</v>
+        <v>1786.772224912938</v>
       </c>
       <c r="T196">
-        <v>-76.65667839855018</v>
+        <v>118.3433216014498</v>
       </c>
     </row>
     <row r="197" spans="1:20">
@@ -12645,10 +12645,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S197">
-        <v>1982.772224912938</v>
+        <v>1786.772224912938</v>
       </c>
       <c r="T197">
-        <v>-77.65667839855018</v>
+        <v>118.3433216014498</v>
       </c>
     </row>
     <row r="198" spans="1:20">
@@ -12707,10 +12707,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S198">
-        <v>1983.772224912938</v>
+        <v>1786.772224912938</v>
       </c>
       <c r="T198">
-        <v>-78.65667839855018</v>
+        <v>118.3433216014498</v>
       </c>
     </row>
     <row r="199" spans="1:20">
@@ -12769,10 +12769,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S199">
-        <v>1984.772224912938</v>
+        <v>1786.772224912938</v>
       </c>
       <c r="T199">
-        <v>-79.65667839855018</v>
+        <v>118.3433216014498</v>
       </c>
     </row>
     <row r="200" spans="1:20">
@@ -12831,10 +12831,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S200">
-        <v>1985.772224912938</v>
+        <v>1786.772224912938</v>
       </c>
       <c r="T200">
-        <v>-80.65667839855018</v>
+        <v>118.3433216014498</v>
       </c>
     </row>
     <row r="201" spans="1:20">
@@ -12893,10 +12893,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S201">
-        <v>1986.772224912938</v>
+        <v>1786.772224912938</v>
       </c>
       <c r="T201">
-        <v>-81.65667839855018</v>
+        <v>118.3433216014498</v>
       </c>
     </row>
     <row r="202" spans="1:20">
@@ -12955,10 +12955,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S202">
-        <v>1987.772224912938</v>
+        <v>1786.772224912938</v>
       </c>
       <c r="T202">
-        <v>-82.65667839855018</v>
+        <v>118.3433216014498</v>
       </c>
     </row>
     <row r="203" spans="1:20">
@@ -13017,10 +13017,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S203">
-        <v>1988.772224912938</v>
+        <v>1786.772224912938</v>
       </c>
       <c r="T203">
-        <v>-83.65667839855018</v>
+        <v>118.3433216014498</v>
       </c>
     </row>
     <row r="204" spans="1:20">
@@ -13079,10 +13079,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S204">
-        <v>1989.772224912938</v>
+        <v>1786.772224912938</v>
       </c>
       <c r="T204">
-        <v>-84.65667839855018</v>
+        <v>118.3433216014498</v>
       </c>
     </row>
     <row r="205" spans="1:20">
@@ -13141,10 +13141,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S205">
-        <v>1990.772224912938</v>
+        <v>1786.772224912938</v>
       </c>
       <c r="T205">
-        <v>-85.65667839855018</v>
+        <v>118.3433216014498</v>
       </c>
     </row>
     <row r="206" spans="1:20">
@@ -13203,10 +13203,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S206">
-        <v>2019.295421462091</v>
+        <v>1814.295421462091</v>
       </c>
       <c r="T206">
-        <v>-66.55198628484368</v>
+        <v>138.4480137151563</v>
       </c>
     </row>
     <row r="207" spans="1:20">
@@ -13265,10 +13265,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S207">
-        <v>2020.295421462091</v>
+        <v>1814.295421462091</v>
       </c>
       <c r="T207">
-        <v>-67.55198628484368</v>
+        <v>138.4480137151563</v>
       </c>
     </row>
     <row r="208" spans="1:20">
@@ -13327,10 +13327,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S208">
-        <v>2021.295421462091</v>
+        <v>1814.295421462091</v>
       </c>
       <c r="T208">
-        <v>-68.55198628484368</v>
+        <v>138.4480137151563</v>
       </c>
     </row>
     <row r="209" spans="1:20">
@@ -13389,10 +13389,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S209">
-        <v>2022.295421462091</v>
+        <v>1814.295421462091</v>
       </c>
       <c r="T209">
-        <v>-69.55198628484368</v>
+        <v>138.4480137151563</v>
       </c>
     </row>
     <row r="210" spans="1:20">
@@ -13451,10 +13451,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S210">
-        <v>2023.295421462091</v>
+        <v>1814.295421462091</v>
       </c>
       <c r="T210">
-        <v>-70.55198628484368</v>
+        <v>138.4480137151563</v>
       </c>
     </row>
     <row r="211" spans="1:20">
@@ -13513,10 +13513,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S211">
-        <v>2024.295421462091</v>
+        <v>1814.295421462091</v>
       </c>
       <c r="T211">
-        <v>-71.55198628484368</v>
+        <v>138.4480137151563</v>
       </c>
     </row>
     <row r="212" spans="1:20">
@@ -13575,10 +13575,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S212">
-        <v>2025.295421462091</v>
+        <v>1814.295421462091</v>
       </c>
       <c r="T212">
-        <v>-72.55198628484368</v>
+        <v>138.4480137151563</v>
       </c>
     </row>
     <row r="213" spans="1:20">
@@ -13637,10 +13637,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S213">
-        <v>2026.295421462091</v>
+        <v>1814.295421462091</v>
       </c>
       <c r="T213">
-        <v>-73.55198628484368</v>
+        <v>138.4480137151563</v>
       </c>
     </row>
     <row r="214" spans="1:20">
@@ -13699,10 +13699,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S214">
-        <v>2027.295421462091</v>
+        <v>1814.295421462091</v>
       </c>
       <c r="T214">
-        <v>-74.55198628484368</v>
+        <v>138.4480137151563</v>
       </c>
     </row>
     <row r="215" spans="1:20">
@@ -13761,10 +13761,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S215">
-        <v>2028.295421462091</v>
+        <v>1814.295421462091</v>
       </c>
       <c r="T215">
-        <v>-75.55198628484368</v>
+        <v>138.4480137151563</v>
       </c>
     </row>
     <row r="216" spans="1:20">
@@ -13823,10 +13823,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S216">
-        <v>2029.295421462091</v>
+        <v>1814.295421462091</v>
       </c>
       <c r="T216">
-        <v>-76.55198628484368</v>
+        <v>138.4480137151563</v>
       </c>
     </row>
     <row r="217" spans="1:20">
@@ -13885,10 +13885,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S217">
-        <v>2030.295421462091</v>
+        <v>1814.295421462091</v>
       </c>
       <c r="T217">
-        <v>-77.55198628484368</v>
+        <v>138.4480137151563</v>
       </c>
     </row>
     <row r="218" spans="1:20">
@@ -13947,10 +13947,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S218">
-        <v>2059.553522456116</v>
+        <v>1842.553522456116</v>
       </c>
       <c r="T218">
-        <v>-57.99150139943777</v>
+        <v>159.0084986005622</v>
       </c>
     </row>
     <row r="219" spans="1:20">
@@ -14009,10 +14009,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S219">
-        <v>2060.553522456116</v>
+        <v>1842.553522456116</v>
       </c>
       <c r="T219">
-        <v>-58.99150139943777</v>
+        <v>159.0084986005622</v>
       </c>
     </row>
     <row r="220" spans="1:20">
@@ -14071,10 +14071,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S220">
-        <v>2061.553522456116</v>
+        <v>1842.553522456116</v>
       </c>
       <c r="T220">
-        <v>-59.99150139943777</v>
+        <v>159.0084986005622</v>
       </c>
     </row>
     <row r="221" spans="1:20">
@@ -14133,10 +14133,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S221">
-        <v>2062.553522456116</v>
+        <v>1842.553522456116</v>
       </c>
       <c r="T221">
-        <v>-60.99150139943777</v>
+        <v>159.0084986005622</v>
       </c>
     </row>
     <row r="222" spans="1:20">
@@ -14195,10 +14195,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S222">
-        <v>2063.553522456116</v>
+        <v>1842.553522456116</v>
       </c>
       <c r="T222">
-        <v>-61.99150139943777</v>
+        <v>159.0084986005622</v>
       </c>
     </row>
     <row r="223" spans="1:20">
@@ -14257,10 +14257,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S223">
-        <v>2064.553522456116</v>
+        <v>1842.553522456116</v>
       </c>
       <c r="T223">
-        <v>-62.99150139943777</v>
+        <v>159.0084986005622</v>
       </c>
     </row>
     <row r="224" spans="1:20">
@@ -14319,10 +14319,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S224">
-        <v>2065.553522456116</v>
+        <v>1842.553522456116</v>
       </c>
       <c r="T224">
-        <v>-63.99150139943777</v>
+        <v>159.0084986005622</v>
       </c>
     </row>
     <row r="225" spans="1:20">
@@ -14381,10 +14381,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S225">
-        <v>2066.553522456116</v>
+        <v>1842.553522456116</v>
       </c>
       <c r="T225">
-        <v>-64.99150139943777</v>
+        <v>159.0084986005622</v>
       </c>
     </row>
     <row r="226" spans="1:20">
@@ -14443,10 +14443,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S226">
-        <v>2067.553522456116</v>
+        <v>1842.553522456116</v>
       </c>
       <c r="T226">
-        <v>-65.99150139943777</v>
+        <v>159.0084986005622</v>
       </c>
     </row>
     <row r="227" spans="1:20">
@@ -14505,10 +14505,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S227">
-        <v>2068.553522456116</v>
+        <v>1842.553522456116</v>
       </c>
       <c r="T227">
-        <v>-66.99150139943777</v>
+        <v>159.0084986005622</v>
       </c>
     </row>
     <row r="228" spans="1:20">
@@ -14567,10 +14567,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S228">
-        <v>2069.553522456116</v>
+        <v>1842.553522456116</v>
       </c>
       <c r="T228">
-        <v>-67.99150139943777</v>
+        <v>159.0084986005622</v>
       </c>
     </row>
     <row r="229" spans="1:20">
@@ -14629,10 +14629,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S229">
-        <v>2070.553522456116</v>
+        <v>1842.553522456116</v>
       </c>
       <c r="T229">
-        <v>-68.99150139943777</v>
+        <v>159.0084986005622</v>
       </c>
     </row>
     <row r="230" spans="1:20">
@@ -14691,10 +14691,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S230">
-        <v>2100.566773487381</v>
+        <v>1871.566773487381</v>
       </c>
       <c r="T230">
-        <v>-48.96570190428611</v>
+        <v>180.0342980957139</v>
       </c>
     </row>
     <row r="231" spans="1:20">
@@ -14753,10 +14753,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S231">
-        <v>2101.566773487381</v>
+        <v>1871.566773487381</v>
       </c>
       <c r="T231">
-        <v>-49.96570190428611</v>
+        <v>180.0342980957139</v>
       </c>
     </row>
     <row r="232" spans="1:20">
@@ -14815,10 +14815,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S232">
-        <v>2102.566773487381</v>
+        <v>1871.566773487381</v>
       </c>
       <c r="T232">
-        <v>-50.96570190428611</v>
+        <v>180.0342980957139</v>
       </c>
     </row>
     <row r="233" spans="1:20">
@@ -14877,10 +14877,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S233">
-        <v>2103.566773487381</v>
+        <v>1871.566773487381</v>
       </c>
       <c r="T233">
-        <v>-51.96570190428611</v>
+        <v>180.0342980957139</v>
       </c>
     </row>
     <row r="234" spans="1:20">
@@ -14939,10 +14939,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S234">
-        <v>2104.566773487381</v>
+        <v>1871.566773487381</v>
       </c>
       <c r="T234">
-        <v>-52.96570190428611</v>
+        <v>180.0342980957139</v>
       </c>
     </row>
     <row r="235" spans="1:20">
@@ -15001,10 +15001,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S235">
-        <v>2105.566773487381</v>
+        <v>1871.566773487381</v>
       </c>
       <c r="T235">
-        <v>-53.96570190428611</v>
+        <v>180.0342980957139</v>
       </c>
     </row>
     <row r="236" spans="1:20">
@@ -15063,10 +15063,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S236">
-        <v>2106.566773487381</v>
+        <v>1871.566773487381</v>
       </c>
       <c r="T236">
-        <v>-54.96570190428611</v>
+        <v>180.0342980957139</v>
       </c>
     </row>
     <row r="237" spans="1:20">
@@ -15125,10 +15125,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S237">
-        <v>2107.566773487381</v>
+        <v>1871.566773487381</v>
       </c>
       <c r="T237">
-        <v>-55.96570190428611</v>
+        <v>180.0342980957139</v>
       </c>
     </row>
     <row r="238" spans="1:20">
@@ -15187,10 +15187,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S238">
-        <v>2108.566773487381</v>
+        <v>1871.566773487381</v>
       </c>
       <c r="T238">
-        <v>-56.96570190428611</v>
+        <v>180.0342980957139</v>
       </c>
     </row>
     <row r="239" spans="1:20">
@@ -15249,10 +15249,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S239">
-        <v>2109.566773487381</v>
+        <v>1871.566773487381</v>
       </c>
       <c r="T239">
-        <v>-57.96570190428611</v>
+        <v>180.0342980957139</v>
       </c>
     </row>
     <row r="240" spans="1:20">
@@ -15311,10 +15311,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S240">
-        <v>2110.566773487381</v>
+        <v>1871.566773487381</v>
       </c>
       <c r="T240">
-        <v>-58.96570190428611</v>
+        <v>180.0342980957139</v>
       </c>
     </row>
     <row r="241" spans="1:20">
@@ -15373,10 +15373,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S241">
-        <v>2111.566773487381</v>
+        <v>1871.566773487381</v>
       </c>
       <c r="T241">
-        <v>-59.96570190428611</v>
+        <v>180.0342980957139</v>
       </c>
     </row>
     <row r="242" spans="1:20">
@@ -15435,10 +15435,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S242">
-        <v>2142.356001207312</v>
+        <v>1901.356001207312</v>
       </c>
       <c r="T242">
-        <v>-39.46490283463982</v>
+        <v>201.5350971653602</v>
       </c>
     </row>
     <row r="243" spans="1:20">
@@ -15497,10 +15497,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S243">
-        <v>2143.356001207312</v>
+        <v>1901.356001207312</v>
       </c>
       <c r="T243">
-        <v>-40.46490283463982</v>
+        <v>201.5350971653602</v>
       </c>
     </row>
     <row r="244" spans="1:20">
@@ -15559,10 +15559,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S244">
-        <v>2144.356001207312</v>
+        <v>1901.356001207312</v>
       </c>
       <c r="T244">
-        <v>-41.46490283463982</v>
+        <v>201.5350971653602</v>
       </c>
     </row>
     <row r="245" spans="1:20">
@@ -15621,10 +15621,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S245">
-        <v>2145.356001207312</v>
+        <v>1901.356001207312</v>
       </c>
       <c r="T245">
-        <v>-42.46490283463982</v>
+        <v>201.5350971653602</v>
       </c>
     </row>
     <row r="246" spans="1:20">
@@ -15683,10 +15683,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S246">
-        <v>2146.356001207312</v>
+        <v>1901.356001207312</v>
       </c>
       <c r="T246">
-        <v>-43.46490283463982</v>
+        <v>201.5350971653602</v>
       </c>
     </row>
     <row r="247" spans="1:20">
@@ -15745,10 +15745,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S247">
-        <v>2147.356001207312</v>
+        <v>1901.356001207312</v>
       </c>
       <c r="T247">
-        <v>-44.46490283463982</v>
+        <v>201.5350971653602</v>
       </c>
     </row>
     <row r="248" spans="1:20">
@@ -15807,10 +15807,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S248">
-        <v>2148.356001207312</v>
+        <v>1901.356001207312</v>
       </c>
       <c r="T248">
-        <v>-45.46490283463982</v>
+        <v>201.5350971653602</v>
       </c>
     </row>
     <row r="249" spans="1:20">
@@ -15869,10 +15869,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S249">
-        <v>2149.356001207312</v>
+        <v>1901.356001207312</v>
       </c>
       <c r="T249">
-        <v>-46.46490283463982</v>
+        <v>201.5350971653602</v>
       </c>
     </row>
     <row r="250" spans="1:20">
@@ -15931,10 +15931,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S250">
-        <v>2150.356001207312</v>
+        <v>1901.356001207312</v>
       </c>
       <c r="T250">
-        <v>-47.46490283463982</v>
+        <v>201.5350971653602</v>
       </c>
     </row>
     <row r="251" spans="1:20">
@@ -15993,10 +15993,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S251">
-        <v>2151.356001207312</v>
+        <v>1901.356001207312</v>
       </c>
       <c r="T251">
-        <v>-48.46490283463982</v>
+        <v>201.5350971653602</v>
       </c>
     </row>
     <row r="252" spans="1:20">
@@ -16055,10 +16055,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S252">
-        <v>2152.356001207312</v>
+        <v>1901.356001207312</v>
       </c>
       <c r="T252">
-        <v>-49.46490283463982</v>
+        <v>201.5350971653602</v>
       </c>
     </row>
     <row r="253" spans="1:20">
@@ -16117,10 +16117,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S253">
-        <v>2153.356001207312</v>
+        <v>1901.356001207312</v>
       </c>
       <c r="T253">
-        <v>-50.46490283463982</v>
+        <v>201.5350971653602</v>
       </c>
     </row>
     <row r="254" spans="1:20">
@@ -16179,10 +16179,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S254">
-        <v>2184.942630849641</v>
+        <v>1931.942630849641</v>
       </c>
       <c r="T254">
-        <v>-29.47925501765212</v>
+        <v>223.5207449823479</v>
       </c>
     </row>
     <row r="255" spans="1:20">
@@ -16241,10 +16241,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S255">
-        <v>2185.942630849641</v>
+        <v>1931.942630849641</v>
       </c>
       <c r="T255">
-        <v>-30.47925501765212</v>
+        <v>223.5207449823479</v>
       </c>
     </row>
     <row r="256" spans="1:20">
@@ -16303,10 +16303,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S256">
-        <v>2186.942630849641</v>
+        <v>1931.942630849641</v>
       </c>
       <c r="T256">
-        <v>-31.47925501765212</v>
+        <v>223.5207449823479</v>
       </c>
     </row>
     <row r="257" spans="1:20">
@@ -16365,10 +16365,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S257">
-        <v>2187.942630849641</v>
+        <v>1931.942630849641</v>
       </c>
       <c r="T257">
-        <v>-32.47925501765212</v>
+        <v>223.5207449823479</v>
       </c>
     </row>
     <row r="258" spans="1:20">
@@ -16427,10 +16427,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S258">
-        <v>2188.942630849641</v>
+        <v>1931.942630849641</v>
       </c>
       <c r="T258">
-        <v>-33.47925501765212</v>
+        <v>223.5207449823479</v>
       </c>
     </row>
     <row r="259" spans="1:20">
@@ -16489,10 +16489,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S259">
-        <v>2189.942630849641</v>
+        <v>1931.942630849641</v>
       </c>
       <c r="T259">
-        <v>-34.47925501765212</v>
+        <v>223.5207449823479</v>
       </c>
     </row>
     <row r="260" spans="1:20">
@@ -16551,10 +16551,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S260">
-        <v>2190.942630849641</v>
+        <v>1931.942630849641</v>
       </c>
       <c r="T260">
-        <v>-35.47925501765212</v>
+        <v>223.5207449823479</v>
       </c>
     </row>
     <row r="261" spans="1:20">
@@ -16613,10 +16613,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S261">
-        <v>2191.942630849641</v>
+        <v>1931.942630849641</v>
       </c>
       <c r="T261">
-        <v>-36.47925501765212</v>
+        <v>223.5207449823479</v>
       </c>
     </row>
     <row r="262" spans="1:20">
@@ -16675,10 +16675,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S262">
-        <v>2192.942630849641</v>
+        <v>1931.942630849641</v>
       </c>
       <c r="T262">
-        <v>-37.47925501765212</v>
+        <v>223.5207449823479</v>
       </c>
     </row>
     <row r="263" spans="1:20">
@@ -16737,10 +16737,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S263">
-        <v>2193.942630849641</v>
+        <v>1931.942630849641</v>
       </c>
       <c r="T263">
-        <v>-38.47925501765212</v>
+        <v>223.5207449823479</v>
       </c>
     </row>
     <row r="264" spans="1:20">
@@ -16799,10 +16799,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S264">
-        <v>2194.942630849641</v>
+        <v>1931.942630849641</v>
       </c>
       <c r="T264">
-        <v>-39.47925501765212</v>
+        <v>223.5207449823479</v>
       </c>
     </row>
     <row r="265" spans="1:20">
@@ -16861,10 +16861,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S265">
-        <v>2195.942630849641</v>
+        <v>1931.942630849641</v>
       </c>
       <c r="T265">
-        <v>-40.47925501765212</v>
+        <v>223.5207449823479</v>
       </c>
     </row>
     <row r="266" spans="1:20">
@@ -16923,10 +16923,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S266">
-        <v>2228.348704311604</v>
+        <v>1963.348704311604</v>
       </c>
       <c r="T266">
-        <v>-18.99874408381538</v>
+        <v>246.0012559161846</v>
       </c>
     </row>
     <row r="267" spans="1:20">
@@ -16985,10 +16985,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S267">
-        <v>2229.348704311604</v>
+        <v>1963.348704311604</v>
       </c>
       <c r="T267">
-        <v>-19.99874408381538</v>
+        <v>246.0012559161846</v>
       </c>
     </row>
     <row r="268" spans="1:20">
@@ -17047,10 +17047,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S268">
-        <v>2230.348704311604</v>
+        <v>1963.348704311604</v>
       </c>
       <c r="T268">
-        <v>-20.99874408381538</v>
+        <v>246.0012559161846</v>
       </c>
     </row>
     <row r="269" spans="1:20">
@@ -17109,10 +17109,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S269">
-        <v>2231.348704311604</v>
+        <v>1963.348704311604</v>
       </c>
       <c r="T269">
-        <v>-21.99874408381538</v>
+        <v>246.0012559161846</v>
       </c>
     </row>
     <row r="270" spans="1:20">
@@ -17171,10 +17171,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S270">
-        <v>2232.348704311604</v>
+        <v>1963.348704311604</v>
       </c>
       <c r="T270">
-        <v>-22.99874408381538</v>
+        <v>246.0012559161846</v>
       </c>
     </row>
     <row r="271" spans="1:20">
@@ -17233,10 +17233,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S271">
-        <v>2233.348704311604</v>
+        <v>1963.348704311604</v>
       </c>
       <c r="T271">
-        <v>-23.99874408381538</v>
+        <v>246.0012559161846</v>
       </c>
     </row>
     <row r="272" spans="1:20">
@@ -17295,10 +17295,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S272">
-        <v>2234.348704311604</v>
+        <v>1963.348704311604</v>
       </c>
       <c r="T272">
-        <v>-24.99874408381538</v>
+        <v>246.0012559161846</v>
       </c>
     </row>
     <row r="273" spans="1:20">
@@ -17357,10 +17357,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S273">
-        <v>2235.348704311604</v>
+        <v>1963.348704311604</v>
       </c>
       <c r="T273">
-        <v>-25.99874408381538</v>
+        <v>246.0012559161846</v>
       </c>
     </row>
     <row r="274" spans="1:20">
@@ -17419,10 +17419,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S274">
-        <v>2236.348704311604</v>
+        <v>1963.348704311604</v>
       </c>
       <c r="T274">
-        <v>-26.99874408381538</v>
+        <v>246.0012559161846</v>
       </c>
     </row>
     <row r="275" spans="1:20">
@@ -17481,10 +17481,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S275">
-        <v>2237.348704311604</v>
+        <v>1963.348704311604</v>
       </c>
       <c r="T275">
-        <v>-27.99874408381538</v>
+        <v>246.0012559161846</v>
       </c>
     </row>
     <row r="276" spans="1:20">
@@ -17543,10 +17543,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S276">
-        <v>2238.348704311604</v>
+        <v>1963.348704311604</v>
       </c>
       <c r="T276">
-        <v>-28.99874408381538</v>
+        <v>246.0012559161846</v>
       </c>
     </row>
     <row r="277" spans="1:20">
@@ -17605,10 +17605,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S277">
-        <v>2239.348704311604</v>
+        <v>1963.348704311604</v>
       </c>
       <c r="T277">
-        <v>-29.99874408381538</v>
+        <v>246.0012559161846</v>
       </c>
     </row>
     <row r="278" spans="1:20">
@@ -17667,10 +17667,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S278">
-        <v>2272.596898811835</v>
+        <v>1995.596898811835</v>
       </c>
       <c r="T278">
-        <v>-8.013189578352012</v>
+        <v>268.986810421648</v>
       </c>
     </row>
     <row r="279" spans="1:20">
@@ -17729,10 +17729,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S279">
-        <v>2273.596898811835</v>
+        <v>1995.596898811835</v>
       </c>
       <c r="T279">
-        <v>-9.013189578352012</v>
+        <v>268.986810421648</v>
       </c>
     </row>
     <row r="280" spans="1:20">
@@ -17791,10 +17791,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S280">
-        <v>2274.596898811835</v>
+        <v>1995.596898811835</v>
       </c>
       <c r="T280">
-        <v>-10.01318957835201</v>
+        <v>268.986810421648</v>
       </c>
     </row>
     <row r="281" spans="1:20">
@@ -17853,10 +17853,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S281">
-        <v>2275.596898811835</v>
+        <v>1995.596898811835</v>
       </c>
       <c r="T281">
-        <v>-11.01318957835201</v>
+        <v>268.986810421648</v>
       </c>
     </row>
     <row r="282" spans="1:20">
@@ -17915,10 +17915,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S282">
-        <v>2276.596898811835</v>
+        <v>1995.596898811835</v>
       </c>
       <c r="T282">
-        <v>-12.01318957835201</v>
+        <v>268.986810421648</v>
       </c>
     </row>
     <row r="283" spans="1:20">
@@ -17977,10 +17977,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S283">
-        <v>2277.596898811835</v>
+        <v>1995.596898811835</v>
       </c>
       <c r="T283">
-        <v>-13.01318957835201</v>
+        <v>268.986810421648</v>
       </c>
     </row>
     <row r="284" spans="1:20">
@@ -18039,10 +18039,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S284">
-        <v>2278.596898811835</v>
+        <v>1995.596898811835</v>
       </c>
       <c r="T284">
-        <v>-14.01318957835201</v>
+        <v>268.986810421648</v>
       </c>
     </row>
     <row r="285" spans="1:20">
@@ -18101,10 +18101,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S285">
-        <v>2279.596898811835</v>
+        <v>1995.596898811835</v>
       </c>
       <c r="T285">
-        <v>-15.01318957835201</v>
+        <v>268.986810421648</v>
       </c>
     </row>
     <row r="286" spans="1:20">
@@ -18163,10 +18163,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S286">
-        <v>2280.596898811835</v>
+        <v>1995.596898811835</v>
       </c>
       <c r="T286">
-        <v>-16.01318957835201</v>
+        <v>268.986810421648</v>
       </c>
     </row>
     <row r="287" spans="1:20">
@@ -18225,10 +18225,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S287">
-        <v>2281.596898811835</v>
+        <v>1995.596898811835</v>
       </c>
       <c r="T287">
-        <v>-17.01318957835201</v>
+        <v>268.986810421648</v>
       </c>
     </row>
     <row r="288" spans="1:20">
@@ -18287,10 +18287,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S288">
-        <v>2282.596898811835</v>
+        <v>1995.596898811835</v>
       </c>
       <c r="T288">
-        <v>-18.01318957835201</v>
+        <v>268.986810421648</v>
       </c>
     </row>
     <row r="289" spans="1:20">
@@ -18349,10 +18349,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S289">
-        <v>2283.596898811835</v>
+        <v>1995.596898811835</v>
       </c>
       <c r="T289">
-        <v>-19.01318957835201</v>
+        <v>268.986810421648</v>
       </c>
     </row>
     <row r="290" spans="1:20">
@@ -18411,10 +18411,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S290">
-        <v>2317.710546144359</v>
+        <v>2028.710546144359</v>
       </c>
       <c r="T290">
-        <v>3.487755819960512</v>
+        <v>292.4877558199605</v>
       </c>
     </row>
     <row r="291" spans="1:20">
@@ -18473,10 +18473,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S291">
-        <v>2318.710546144359</v>
+        <v>2028.710546144359</v>
       </c>
       <c r="T291">
-        <v>2.487755819960512</v>
+        <v>292.4877558199605</v>
       </c>
     </row>
     <row r="292" spans="1:20">
@@ -18535,10 +18535,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S292">
-        <v>2319.710546144359</v>
+        <v>2028.710546144359</v>
       </c>
       <c r="T292">
-        <v>1.487755819960512</v>
+        <v>292.4877558199605</v>
       </c>
     </row>
     <row r="293" spans="1:20">
@@ -18597,10 +18597,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S293">
-        <v>2320.710546144359</v>
+        <v>2028.710546144359</v>
       </c>
       <c r="T293">
-        <v>0.4877558199605119</v>
+        <v>292.4877558199605</v>
       </c>
     </row>
     <row r="294" spans="1:20">
@@ -18659,10 +18659,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S294">
-        <v>2321.710546144359</v>
+        <v>2028.710546144359</v>
       </c>
       <c r="T294">
-        <v>-0.5122441800394881</v>
+        <v>292.4877558199605</v>
       </c>
     </row>
     <row r="295" spans="1:20">
@@ -18721,10 +18721,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S295">
-        <v>2322.710546144359</v>
+        <v>2028.710546144359</v>
       </c>
       <c r="T295">
-        <v>-1.512244180039488</v>
+        <v>292.4877558199605</v>
       </c>
     </row>
     <row r="296" spans="1:20">
@@ -18783,10 +18783,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S296">
-        <v>2323.710546144359</v>
+        <v>2028.710546144359</v>
       </c>
       <c r="T296">
-        <v>-2.512244180039488</v>
+        <v>292.4877558199605</v>
       </c>
     </row>
     <row r="297" spans="1:20">
@@ -18845,10 +18845,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S297">
-        <v>2324.710546144359</v>
+        <v>2028.710546144359</v>
       </c>
       <c r="T297">
-        <v>-3.512244180039488</v>
+        <v>292.4877558199605</v>
       </c>
     </row>
     <row r="298" spans="1:20">
@@ -18907,10 +18907,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S298">
-        <v>2325.710546144359</v>
+        <v>2028.710546144359</v>
       </c>
       <c r="T298">
-        <v>-4.512244180039488</v>
+        <v>292.4877558199605</v>
       </c>
     </row>
     <row r="299" spans="1:20">
@@ -18969,10 +18969,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S299">
-        <v>2326.710546144359</v>
+        <v>2028.710546144359</v>
       </c>
       <c r="T299">
-        <v>-5.512244180039488</v>
+        <v>292.4877558199605</v>
       </c>
     </row>
     <row r="300" spans="1:20">
@@ -19031,10 +19031,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S300">
-        <v>2327.710546144359</v>
+        <v>2028.710546144359</v>
       </c>
       <c r="T300">
-        <v>-6.512244180039488</v>
+        <v>292.4877558199605</v>
       </c>
     </row>
     <row r="301" spans="1:20">
@@ -19093,10 +19093,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S301">
-        <v>2328.710546144359</v>
+        <v>2028.710546144359</v>
       </c>
       <c r="T301">
-        <v>-7.512244180039488</v>
+        <v>292.4877558199605</v>
       </c>
     </row>
     <row r="302" spans="1:20">
@@ -19155,10 +19155,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S302">
-        <v>2363.713652548776</v>
+        <v>2062.713652548776</v>
       </c>
       <c r="T302">
-        <v>15.5146069646521</v>
+        <v>316.5146069646516</v>
       </c>
     </row>
     <row r="303" spans="1:20">
@@ -19217,10 +19217,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S303">
-        <v>2364.713652548776</v>
+        <v>2062.713652548776</v>
       </c>
       <c r="T303">
-        <v>14.5146069646521</v>
+        <v>316.5146069646516</v>
       </c>
     </row>
     <row r="304" spans="1:20">
@@ -19279,10 +19279,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S304">
-        <v>2365.713652548776</v>
+        <v>2062.713652548776</v>
       </c>
       <c r="T304">
-        <v>13.5146069646521</v>
+        <v>316.5146069646516</v>
       </c>
     </row>
     <row r="305" spans="1:20">
@@ -19341,10 +19341,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S305">
-        <v>2366.713652548776</v>
+        <v>2062.713652548776</v>
       </c>
       <c r="T305">
-        <v>12.5146069646521</v>
+        <v>316.5146069646516</v>
       </c>
     </row>
     <row r="306" spans="1:20">
@@ -19403,10 +19403,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S306">
-        <v>2367.713652548776</v>
+        <v>2062.713652548776</v>
       </c>
       <c r="T306">
-        <v>11.5146069646521</v>
+        <v>316.5146069646516</v>
       </c>
     </row>
     <row r="307" spans="1:20">
@@ -19465,10 +19465,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S307">
-        <v>2368.713652548776</v>
+        <v>2062.713652548776</v>
       </c>
       <c r="T307">
-        <v>10.5146069646521</v>
+        <v>316.5146069646516</v>
       </c>
     </row>
     <row r="308" spans="1:20">
@@ -19527,10 +19527,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S308">
-        <v>2369.713652548776</v>
+        <v>2062.713652548776</v>
       </c>
       <c r="T308">
-        <v>9.514606964652103</v>
+        <v>316.5146069646516</v>
       </c>
     </row>
     <row r="309" spans="1:20">
@@ -19589,10 +19589,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S309">
-        <v>2370.713652548776</v>
+        <v>2062.713652548776</v>
       </c>
       <c r="T309">
-        <v>8.514606964652103</v>
+        <v>316.5146069646516</v>
       </c>
     </row>
     <row r="310" spans="1:20">
@@ -19651,10 +19651,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S310">
-        <v>2371.713652548776</v>
+        <v>2062.713652548776</v>
       </c>
       <c r="T310">
-        <v>7.514606964652103</v>
+        <v>316.5146069646516</v>
       </c>
     </row>
     <row r="311" spans="1:20">
@@ -19713,10 +19713,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S311">
-        <v>2372.713652548776</v>
+        <v>2062.713652548776</v>
       </c>
       <c r="T311">
-        <v>6.514606964652103</v>
+        <v>316.5146069646516</v>
       </c>
     </row>
     <row r="312" spans="1:20">
@@ -19775,10 +19775,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S312">
-        <v>2373.713652548776</v>
+        <v>2062.713652548776</v>
       </c>
       <c r="T312">
-        <v>5.514606964652103</v>
+        <v>316.5146069646516</v>
       </c>
     </row>
     <row r="313" spans="1:20">
@@ -19837,10 +19837,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S313">
-        <v>2374.713652548776</v>
+        <v>2062.713652548776</v>
       </c>
       <c r="T313">
-        <v>4.514606964652103</v>
+        <v>316.5146069646516</v>
       </c>
     </row>
     <row r="314" spans="1:20">
@@ -19899,10 +19899,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S314">
-        <v>2410.630919217425</v>
+        <v>2097.630919217425</v>
       </c>
       <c r="T314">
-        <v>28.07804678383809</v>
+        <v>341.0780467838381</v>
       </c>
     </row>
     <row r="315" spans="1:20">
@@ -19961,10 +19961,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S315">
-        <v>2411.630919217425</v>
+        <v>2097.630919217425</v>
       </c>
       <c r="T315">
-        <v>27.07804678383809</v>
+        <v>341.0780467838381</v>
       </c>
     </row>
     <row r="316" spans="1:20">
@@ -20023,10 +20023,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S316">
-        <v>2412.630919217425</v>
+        <v>2097.630919217425</v>
       </c>
       <c r="T316">
-        <v>26.07804678383809</v>
+        <v>341.0780467838381</v>
       </c>
     </row>
     <row r="317" spans="1:20">
@@ -20085,10 +20085,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S317">
-        <v>2413.630919217425</v>
+        <v>2097.630919217425</v>
       </c>
       <c r="T317">
-        <v>25.07804678383809</v>
+        <v>341.0780467838381</v>
       </c>
     </row>
     <row r="318" spans="1:20">
@@ -20147,10 +20147,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S318">
-        <v>2414.630919217425</v>
+        <v>2097.630919217425</v>
       </c>
       <c r="T318">
-        <v>24.07804678383809</v>
+        <v>341.0780467838381</v>
       </c>
     </row>
     <row r="319" spans="1:20">
@@ -20209,10 +20209,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S319">
-        <v>2415.630919217425</v>
+        <v>2097.630919217425</v>
       </c>
       <c r="T319">
-        <v>23.07804678383809</v>
+        <v>341.0780467838381</v>
       </c>
     </row>
     <row r="320" spans="1:20">
@@ -20271,10 +20271,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S320">
-        <v>2416.630919217425</v>
+        <v>2097.630919217425</v>
       </c>
       <c r="T320">
-        <v>22.07804678383809</v>
+        <v>341.0780467838381</v>
       </c>
     </row>
     <row r="321" spans="1:20">
@@ -20333,10 +20333,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S321">
-        <v>2417.630919217425</v>
+        <v>2097.630919217425</v>
       </c>
       <c r="T321">
-        <v>21.07804678383809</v>
+        <v>341.0780467838381</v>
       </c>
     </row>
     <row r="322" spans="1:20">
@@ -20395,10 +20395,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S322">
-        <v>2418.630919217425</v>
+        <v>2097.630919217425</v>
       </c>
       <c r="T322">
-        <v>20.07804678383809</v>
+        <v>341.0780467838381</v>
       </c>
     </row>
     <row r="323" spans="1:20">
@@ -20457,10 +20457,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S323">
-        <v>2419.630919217425</v>
+        <v>2097.630919217425</v>
       </c>
       <c r="T323">
-        <v>19.07804678383809</v>
+        <v>341.0780467838381</v>
       </c>
     </row>
     <row r="324" spans="1:20">
@@ -20519,10 +20519,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S324">
-        <v>2420.630919217425</v>
+        <v>2097.630919217425</v>
       </c>
       <c r="T324">
-        <v>18.07804678383809</v>
+        <v>341.0780467838381</v>
       </c>
     </row>
     <row r="325" spans="1:20">
@@ -20581,10 +20581,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S325">
-        <v>2421.630919217425</v>
+        <v>2097.630919217425</v>
       </c>
       <c r="T325">
-        <v>17.07804678383809</v>
+        <v>341.0780467838381</v>
       </c>
     </row>
     <row r="326" spans="1:20">
@@ -20643,10 +20643,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S326">
-        <v>2458.487763461078</v>
+        <v>2133.487763461078</v>
       </c>
       <c r="T326">
-        <v>41.18892669021625</v>
+        <v>366.1889266902162</v>
       </c>
     </row>
     <row r="327" spans="1:20">
@@ -20705,10 +20705,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S327">
-        <v>2459.487763461078</v>
+        <v>2133.487763461078</v>
       </c>
       <c r="T327">
-        <v>40.18892669021625</v>
+        <v>366.1889266902162</v>
       </c>
     </row>
     <row r="328" spans="1:20">
@@ -20767,10 +20767,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S328">
-        <v>2460.487763461078</v>
+        <v>2133.487763461078</v>
       </c>
       <c r="T328">
-        <v>39.18892669021625</v>
+        <v>366.1889266902162</v>
       </c>
     </row>
     <row r="329" spans="1:20">
@@ -20829,10 +20829,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S329">
-        <v>2461.487763461078</v>
+        <v>2133.487763461078</v>
       </c>
       <c r="T329">
-        <v>38.18892669021625</v>
+        <v>366.1889266902162</v>
       </c>
     </row>
     <row r="330" spans="1:20">
@@ -20891,10 +20891,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S330">
-        <v>2462.487763461078</v>
+        <v>2133.487763461078</v>
       </c>
       <c r="T330">
-        <v>37.18892669021625</v>
+        <v>366.1889266902162</v>
       </c>
     </row>
     <row r="331" spans="1:20">
@@ -20953,10 +20953,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S331">
-        <v>2463.487763461078</v>
+        <v>2133.487763461078</v>
       </c>
       <c r="T331">
-        <v>36.18892669021625</v>
+        <v>366.1889266902162</v>
       </c>
     </row>
     <row r="332" spans="1:20">
@@ -21015,10 +21015,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S332">
-        <v>2464.487763461078</v>
+        <v>2133.487763461078</v>
       </c>
       <c r="T332">
-        <v>35.18892669021625</v>
+        <v>366.1889266902162</v>
       </c>
     </row>
     <row r="333" spans="1:20">
@@ -21077,10 +21077,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S333">
-        <v>2465.487763461078</v>
+        <v>2133.487763461078</v>
       </c>
       <c r="T333">
-        <v>34.18892669021625</v>
+        <v>366.1889266902162</v>
       </c>
     </row>
     <row r="334" spans="1:20">
@@ -21139,10 +21139,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S334">
-        <v>2466.487763461078</v>
+        <v>2133.487763461078</v>
       </c>
       <c r="T334">
-        <v>33.18892669021625</v>
+        <v>366.1889266902162</v>
       </c>
     </row>
     <row r="335" spans="1:20">
@@ -21201,10 +21201,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S335">
-        <v>2467.487763461078</v>
+        <v>2133.487763461078</v>
       </c>
       <c r="T335">
-        <v>32.18892669021625</v>
+        <v>366.1889266902162</v>
       </c>
     </row>
     <row r="336" spans="1:20">
@@ -21263,10 +21263,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S336">
-        <v>2468.487763461078</v>
+        <v>2133.487763461078</v>
       </c>
       <c r="T336">
-        <v>31.18892669021625</v>
+        <v>366.1889266902162</v>
       </c>
     </row>
     <row r="337" spans="1:20">
@@ -21325,10 +21325,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S337">
-        <v>2469.487763461078</v>
+        <v>2133.487763461078</v>
       </c>
       <c r="T337">
-        <v>30.18892669021625</v>
+        <v>366.1889266902162</v>
       </c>
     </row>
     <row r="338" spans="1:20">
@@ -21387,10 +21387,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S338">
-        <v>2507.310340555441</v>
+        <v>2170.310340555441</v>
       </c>
       <c r="T338">
-        <v>54.85826684963604</v>
+        <v>391.858266849636</v>
       </c>
     </row>
     <row r="339" spans="1:20">
@@ -21449,10 +21449,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S339">
-        <v>2508.310340555441</v>
+        <v>2170.310340555441</v>
       </c>
       <c r="T339">
-        <v>53.85826684963604</v>
+        <v>391.858266849636</v>
       </c>
     </row>
     <row r="340" spans="1:20">
@@ -21511,10 +21511,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S340">
-        <v>2509.310340555441</v>
+        <v>2170.310340555441</v>
       </c>
       <c r="T340">
-        <v>52.85826684963604</v>
+        <v>391.858266849636</v>
       </c>
     </row>
     <row r="341" spans="1:20">
@@ -21573,10 +21573,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S341">
-        <v>2510.310340555441</v>
+        <v>2170.310340555441</v>
       </c>
       <c r="T341">
-        <v>51.85826684963604</v>
+        <v>391.858266849636</v>
       </c>
     </row>
     <row r="342" spans="1:20">
@@ -21635,10 +21635,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S342">
-        <v>2511.310340555441</v>
+        <v>2170.310340555441</v>
       </c>
       <c r="T342">
-        <v>50.85826684963604</v>
+        <v>391.858266849636</v>
       </c>
     </row>
     <row r="343" spans="1:20">
@@ -21697,10 +21697,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S343">
-        <v>2512.310340555441</v>
+        <v>2170.310340555441</v>
       </c>
       <c r="T343">
-        <v>49.85826684963604</v>
+        <v>391.858266849636</v>
       </c>
     </row>
     <row r="344" spans="1:20">
@@ -21759,10 +21759,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S344">
-        <v>2513.310340555441</v>
+        <v>2170.310340555441</v>
       </c>
       <c r="T344">
-        <v>48.85826684963604</v>
+        <v>391.858266849636</v>
       </c>
     </row>
     <row r="345" spans="1:20">
@@ -21821,10 +21821,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S345">
-        <v>2514.310340555441</v>
+        <v>2170.310340555441</v>
       </c>
       <c r="T345">
-        <v>47.85826684963604</v>
+        <v>391.858266849636</v>
       </c>
     </row>
     <row r="346" spans="1:20">
@@ -21883,10 +21883,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S346">
-        <v>2515.310340555441</v>
+        <v>2170.310340555441</v>
       </c>
       <c r="T346">
-        <v>46.85826684963604</v>
+        <v>391.858266849636</v>
       </c>
     </row>
     <row r="347" spans="1:20">
@@ -21945,10 +21945,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S347">
-        <v>2516.310340555441</v>
+        <v>2170.310340555441</v>
       </c>
       <c r="T347">
-        <v>45.85826684963604</v>
+        <v>391.858266849636</v>
       </c>
     </row>
     <row r="348" spans="1:20">
@@ -22007,10 +22007,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S348">
-        <v>2517.310340555441</v>
+        <v>2170.310340555441</v>
       </c>
       <c r="T348">
-        <v>44.85826684963604</v>
+        <v>391.858266849636</v>
       </c>
     </row>
     <row r="349" spans="1:20">
@@ -22069,10 +22069,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S349">
-        <v>2518.310340555441</v>
+        <v>2170.310340555441</v>
       </c>
       <c r="T349">
-        <v>43.85826684963604</v>
+        <v>391.858266849636</v>
       </c>
     </row>
     <row r="350" spans="1:20">
@@ -22131,10 +22131,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S350">
-        <v>2557.125566291566</v>
+        <v>2208.125566291566</v>
       </c>
       <c r="T350">
-        <v>69.09725629863715</v>
+        <v>418.0972562986376</v>
       </c>
     </row>
     <row r="351" spans="1:20">
@@ -22193,10 +22193,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S351">
-        <v>2558.125566291566</v>
+        <v>2208.125566291566</v>
       </c>
       <c r="T351">
-        <v>68.09725629863715</v>
+        <v>418.0972562986376</v>
       </c>
     </row>
     <row r="352" spans="1:20">
@@ -22255,10 +22255,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S352">
-        <v>2559.125566291566</v>
+        <v>2208.125566291566</v>
       </c>
       <c r="T352">
-        <v>67.09725629863715</v>
+        <v>418.0972562986376</v>
       </c>
     </row>
     <row r="353" spans="1:20">
@@ -22317,10 +22317,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S353">
-        <v>2560.125566291566</v>
+        <v>2208.125566291566</v>
       </c>
       <c r="T353">
-        <v>66.09725629863715</v>
+        <v>418.0972562986376</v>
       </c>
     </row>
     <row r="354" spans="1:20">
@@ -22379,10 +22379,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S354">
-        <v>2561.125566291566</v>
+        <v>2208.125566291566</v>
       </c>
       <c r="T354">
-        <v>65.09725629863715</v>
+        <v>418.0972562986376</v>
       </c>
     </row>
     <row r="355" spans="1:20">
@@ -22441,10 +22441,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S355">
-        <v>2562.125566291566</v>
+        <v>2208.125566291566</v>
       </c>
       <c r="T355">
-        <v>64.09725629863715</v>
+        <v>418.0972562986376</v>
       </c>
     </row>
     <row r="356" spans="1:20">
@@ -22503,10 +22503,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S356">
-        <v>2563.125566291566</v>
+        <v>2208.125566291566</v>
       </c>
       <c r="T356">
-        <v>63.09725629863715</v>
+        <v>418.0972562986376</v>
       </c>
     </row>
     <row r="357" spans="1:20">
@@ -22565,10 +22565,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S357">
-        <v>2564.125566291566</v>
+        <v>2208.125566291566</v>
       </c>
       <c r="T357">
-        <v>62.09725629863715</v>
+        <v>418.0972562986376</v>
       </c>
     </row>
     <row r="358" spans="1:20">
@@ -22627,10 +22627,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S358">
-        <v>2565.125566291566</v>
+        <v>2208.125566291566</v>
       </c>
       <c r="T358">
-        <v>61.09725629863715</v>
+        <v>418.0972562986376</v>
       </c>
     </row>
     <row r="359" spans="1:20">
@@ -22689,10 +22689,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S359">
-        <v>2566.125566291566</v>
+        <v>2208.125566291566</v>
       </c>
       <c r="T359">
-        <v>60.09725629863715</v>
+        <v>418.0972562986376</v>
       </c>
     </row>
     <row r="360" spans="1:20">
@@ -22751,10 +22751,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S360">
-        <v>2567.125566291566</v>
+        <v>2208.125566291566</v>
       </c>
       <c r="T360">
-        <v>59.09725629863715</v>
+        <v>418.0972562986376</v>
       </c>
     </row>
     <row r="361" spans="1:20">
@@ -22813,10 +22813,10 @@
         <v>732.6688940899854</v>
       </c>
       <c r="S361">
-        <v>2568.125566291566</v>
+        <v>2208.125566291566</v>
       </c>
       <c r="T361">
-        <v>58.09725629863715</v>
+        <v>418.0972562986376</v>
       </c>
     </row>
   </sheetData>
